--- a/StructureCoûts.xlsx
+++ b/StructureCoûts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Coûts récurents</t>
   </si>
@@ -70,67 +70,76 @@
     <t>Casque audio</t>
   </si>
   <si>
-    <t>Salaire expert retro gaming</t>
+    <t>Salaire expert retro gaming brut</t>
   </si>
   <si>
     <t>Tapis de souris</t>
   </si>
   <si>
+    <t>Salaire expert IT brut</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
     <t>Frais de server</t>
   </si>
   <si>
-    <t>Imprimante</t>
+    <t>Câble ethernets 100m</t>
   </si>
   <si>
     <t>Location de nom de domaine</t>
   </si>
   <si>
-    <t>Câble ethernets 100m</t>
+    <t>Multi-prise</t>
   </si>
   <si>
     <t>Emballages cartons</t>
   </si>
   <si>
-    <t>Multi-prise</t>
+    <t>Bracelet anti static</t>
   </si>
   <si>
     <t>Papier bulle</t>
   </si>
   <si>
-    <t>Bracelet anti static</t>
+    <t>Balance</t>
   </si>
   <si>
     <t>Papier</t>
   </si>
   <si>
-    <t>Balance</t>
+    <t>Tournevis</t>
+  </si>
+  <si>
+    <t>Publicité</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>Participation événements</t>
+  </si>
+  <si>
+    <t>Chaise ergonomique</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Tournevis</t>
-  </si>
-  <si>
-    <t>Bureau</t>
-  </si>
-  <si>
-    <t>Chaise ergonomique</t>
-  </si>
-  <si>
     <t>Loupe de table avec led</t>
   </si>
   <si>
+    <t>Lampe de table</t>
+  </si>
+  <si>
+    <t>Porte-manteau</t>
+  </si>
+  <si>
     <t>coût 1er mois</t>
   </si>
   <si>
-    <t>Lampe de table</t>
-  </si>
-  <si>
     <t>coût 1ère année</t>
-  </si>
-  <si>
-    <t>Porte-manteau</t>
   </si>
 </sst>
 </file>
@@ -139,12 +148,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +169,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,17 +198,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,14 +224,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -265,6 +268,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -288,14 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -310,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,19 +321,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,115 +393,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,56 +505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -709,9 +693,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -722,21 +704,54 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -760,6 +775,21 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -782,19 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -862,10 +879,38 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -893,6 +938,26 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,15 +1001,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -983,166 +1039,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,7 +1207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1174,49 +1219,50 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,15 +1582,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C9:K29"/>
+  <dimension ref="C9:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="34.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="39.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
@@ -1565,9 +1611,9 @@
       <c r="H10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" ht="19.5" spans="3:11">
       <c r="C11" s="5" t="s">
@@ -1585,7 +1631,7 @@
       <c r="I11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -1597,22 +1643,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="10">
-        <v>30</v>
+        <v>198.93</v>
       </c>
       <c r="E12" s="11">
         <f>D12*12</f>
-        <v>360</v>
+        <v>2387.16</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="38">
         <v>2</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="39">
         <v>1000</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="40">
         <f>I12*J12</f>
         <v>2000</v>
       </c>
@@ -1625,16 +1671,16 @@
         <v>100</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" ref="E13:E23" si="0">D13*12</f>
+        <f t="shared" ref="E13:E18" si="0">D13*12</f>
         <v>1200</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="41">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="42">
         <v>200</v>
       </c>
       <c r="K13" s="15">
@@ -1656,10 +1702,10 @@
       <c r="H14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="41">
         <v>2</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="42">
         <v>20</v>
       </c>
       <c r="K14" s="15">
@@ -1681,10 +1727,10 @@
       <c r="H15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="41">
         <v>2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="42">
         <v>12.5</v>
       </c>
       <c r="K15" s="15">
@@ -1706,10 +1752,10 @@
       <c r="H16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="41">
         <v>2</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="42">
         <v>60</v>
       </c>
       <c r="K16" s="15">
@@ -1722,19 +1768,19 @@
         <v>18</v>
       </c>
       <c r="D17" s="14">
-        <v>2500</v>
+        <v>3150</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>37800</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="41">
         <v>2</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="42">
         <v>5</v>
       </c>
       <c r="K17" s="15">
@@ -1743,23 +1789,23 @@
       </c>
     </row>
     <row r="18" ht="18.75" spans="3:11">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>20</v>
+        <v>3150</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H18" s="19" t="s">
+        <v>37800</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="41">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="42">
         <v>350</v>
       </c>
       <c r="K18" s="15">
@@ -1768,23 +1814,23 @@
       </c>
     </row>
     <row r="19" ht="18.75" spans="3:11">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="14">
-        <v>1</v>
+        <v>23.99</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="E19:E25" si="2">D19*12</f>
+        <v>287.88</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="41">
         <v>1</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="42">
         <v>25</v>
       </c>
       <c r="K19" s="15">
@@ -1793,23 +1839,23 @@
       </c>
     </row>
     <row r="20" ht="18.75" spans="3:11">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="41">
         <v>2</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="42">
         <v>15</v>
       </c>
       <c r="K20" s="15">
@@ -1822,19 +1868,19 @@
         <v>26</v>
       </c>
       <c r="D21" s="14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="41">
         <v>1</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="42">
         <v>10</v>
       </c>
       <c r="K21" s="15">
@@ -1842,24 +1888,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="19.5" spans="3:11">
-      <c r="C22" s="21" t="s">
+    <row r="22" ht="18.75" spans="3:11">
+      <c r="C22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="41">
         <v>1</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="42">
         <v>30</v>
       </c>
       <c r="K22" s="15">
@@ -1867,25 +1913,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="19.5" spans="3:11">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18.75" spans="3:11">
+      <c r="C23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="25">
-        <f>SUM(D12:D22)</f>
-        <v>2806</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="0"/>
-        <v>33672</v>
+      <c r="D23" s="20">
+        <v>1.17</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="2"/>
+        <v>14.04</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="41">
         <v>1</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="42">
         <v>20</v>
       </c>
       <c r="K23" s="15">
@@ -1893,14 +1938,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="8:11">
+    <row r="24" ht="18.75" spans="3:11">
+      <c r="C24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22">
+        <v>500</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
       <c r="H24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="39">
+        <v>33</v>
+      </c>
+      <c r="I24" s="41">
         <v>2</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="42">
         <v>200</v>
       </c>
       <c r="K24" s="15">
@@ -1908,14 +1963,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" ht="18.75" spans="8:11">
+    <row r="25" ht="19.5" spans="3:11">
+      <c r="C25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="24">
+        <v>100</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
       <c r="H25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="39">
+        <v>35</v>
+      </c>
+      <c r="I25" s="41">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="42">
         <v>800</v>
       </c>
       <c r="K25" s="15">
@@ -1923,14 +1988,25 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" ht="19.5" spans="8:11">
+    <row r="26" ht="19.5" spans="3:11">
+      <c r="C26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="27">
+        <f>SUM(D12:D25)</f>
+        <v>7379.09</v>
+      </c>
+      <c r="E26" s="28">
+        <f>D26*12</f>
+        <v>88549.08</v>
+      </c>
       <c r="H26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="39">
+        <v>37</v>
+      </c>
+      <c r="I26" s="41">
         <v>1</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="42">
         <v>40</v>
       </c>
       <c r="K26" s="15">
@@ -1938,21 +2014,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="19.5" spans="3:11">
-      <c r="C27" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="28">
-        <f>D23+I29</f>
-        <v>7961</v>
-      </c>
+    <row r="27" ht="18.75" spans="8:11">
       <c r="H27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="39">
+        <v>38</v>
+      </c>
+      <c r="I27" s="41">
         <v>1</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="42">
         <v>25</v>
       </c>
       <c r="K27" s="15">
@@ -1960,38 +2029,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="19.5" spans="3:11">
-      <c r="C28" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="30">
-        <f>E23+I29</f>
-        <v>38827</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="41">
+    <row r="28" ht="18.75" spans="8:11">
+      <c r="H28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="43">
         <v>1</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="44">
         <v>30</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="45">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" ht="19.5" spans="8:11">
-      <c r="H29" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="43">
+      <c r="H29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="46">
         <f>SUM(K12:K28)</f>
         <v>5155</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" ht="19.5" spans="3:4">
+      <c r="C30" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="32">
+        <f>D26+I29</f>
+        <v>12534.09</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" spans="3:4">
+      <c r="C31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="34">
+        <f>E26+I29</f>
+        <v>93704.08</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/StructureCoûts.xlsx
+++ b/StructureCoûts.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours 2021-2022\NOTIONS DE E-BUSINESS\Projet-ebusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B902DF-154F-40BA-9DA7-E22544D3C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Coûts récurents</t>
   </si>
@@ -140,20 +157,64 @@
   </si>
   <si>
     <t>coût 1ère année</t>
+  </si>
+  <si>
+    <t>Positif</t>
+  </si>
+  <si>
+    <t>Negatif</t>
+  </si>
+  <si>
+    <t>Interne</t>
+  </si>
+  <si>
+    <t>Externe</t>
+  </si>
+  <si>
+    <t>Peu de couts de maintient</t>
+  </si>
+  <si>
+    <t>Peu de couts initiaux</t>
+  </si>
+  <si>
+    <t>Effet de levier</t>
+  </si>
+  <si>
+    <t>Impossible de se reposer sur notre stock</t>
+  </si>
+  <si>
+    <t>Possibilité de mort de l’expert analyste</t>
+  </si>
+  <si>
+    <t>Responsabilité pour l’authentification des biens</t>
+  </si>
+  <si>
+    <t>Marcher en expansion</t>
+  </si>
+  <si>
+    <t>Augmentation du prix des articles</t>
+  </si>
+  <si>
+    <t>Culture en expansion et "trendy"</t>
+  </si>
+  <si>
+    <t>Clientèle de niche relativement faible</t>
+  </si>
+  <si>
+    <t>Concept simple -&gt; possibilité de concurrence</t>
+  </si>
+  <si>
+    <t>Risque du déclin de la culture geek et retro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,155 +225,18 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Baskerville Old Face"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,192 +245,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -942,383 +686,199 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1576,511 +1136,832 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C9:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B8:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="39.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="12.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="15.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="11.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="10.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" ht="15.75"/>
-    <row r="10" ht="19.5" spans="3:11">
-      <c r="C10" s="1" t="s">
+    <row r="8" spans="2:24" ht="18.75">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" ht="18.75">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="H10" s="4" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" ht="19.5" spans="3:11">
-      <c r="C11" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" spans="3:11">
-      <c r="C12" s="9" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="2:24" ht="18.75">
+      <c r="B12" s="19"/>
+      <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="30">
         <v>198.93</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="31">
         <f>D12*12</f>
         <v>2387.16</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="33">
         <v>2</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="34">
         <v>1000</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="35">
         <f>I12*J12</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" spans="3:11">
-      <c r="C13" s="13" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="2:24" ht="18.75">
+      <c r="B13" s="19"/>
+      <c r="C13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="37">
         <v>100</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="38">
         <f t="shared" ref="E13:E18" si="0">D13*12</f>
         <v>1200</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>2</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <v>200</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="38">
         <f t="shared" ref="K13:K28" si="1">I13*J13</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="14" ht="18.75" spans="3:11">
-      <c r="C14" s="13" t="s">
+      <c r="M13" s="1"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="37">
         <v>14</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="38">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="40">
         <v>2</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>20</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="38">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="15" ht="18.75" spans="3:11">
-      <c r="C15" s="13" t="s">
+      <c r="M14" s="1"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.75">
+      <c r="B15" s="19"/>
+      <c r="C15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="37">
         <v>60</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="38">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <v>2</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="41">
         <v>12.5</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="38">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="16" ht="18.75" spans="3:11">
-      <c r="C16" s="17" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="2:24" ht="18.75">
+      <c r="B16" s="19"/>
+      <c r="C16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="37">
         <v>20</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="38">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <v>2</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>60</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="38">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="17" ht="18.75" spans="3:11">
-      <c r="C17" s="13" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+    </row>
+    <row r="17" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="37">
         <v>3150</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="38">
         <f t="shared" si="0"/>
         <v>37800</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>2</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>5</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" ht="18.75" spans="3:11">
-      <c r="C18" s="13" t="s">
+      <c r="M17" s="1"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="2:24" ht="18.75">
+      <c r="B18" s="19"/>
+      <c r="C18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="37">
         <v>3150</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="38">
         <f t="shared" si="0"/>
         <v>37800</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="40">
         <v>1</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>350</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="38">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="19" ht="18.75" spans="3:11">
-      <c r="C19" s="17" t="s">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" ht="18.75">
+      <c r="B19" s="19"/>
+      <c r="C19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="37">
         <v>23.99</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="38">
         <f t="shared" ref="E19:E25" si="2">D19*12</f>
         <v>287.88</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="40">
         <v>1</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>25</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="38">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" ht="18.75" spans="3:11">
-      <c r="C20" s="17" t="s">
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:24" ht="18.75">
+      <c r="B20" s="19"/>
+      <c r="C20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="37">
         <v>1</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="38">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="40">
         <v>2</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>15</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="38">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" ht="18.75" spans="3:11">
-      <c r="C21" s="13" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:24" ht="18.75">
+      <c r="B21" s="19"/>
+      <c r="C21" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="37">
         <v>50</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="38">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <v>1</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>10</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" ht="18.75" spans="3:11">
-      <c r="C22" s="13" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" ht="18.75">
+      <c r="B22" s="19"/>
+      <c r="C22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="37">
         <v>10</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="38">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="40">
         <v>1</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>30</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="38">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="23" ht="18.75" spans="3:11">
-      <c r="C23" s="19" t="s">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" ht="18.75">
+      <c r="B23" s="19"/>
+      <c r="C23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="45">
         <v>1.17</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="46">
         <f t="shared" si="2"/>
         <v>14.04</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="40">
         <v>1</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>20</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" ht="18.75" spans="3:11">
-      <c r="C24" s="13" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="18.75">
+      <c r="B24" s="19"/>
+      <c r="C24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="37">
         <v>500</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="38">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>2</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>200</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="38">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="25" ht="19.5" spans="3:11">
-      <c r="C25" s="23" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75">
+      <c r="B25" s="19"/>
+      <c r="C25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="48">
         <v>100</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="49">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="40">
         <v>2</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>800</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="38">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="26" ht="19.5" spans="3:11">
-      <c r="C26" s="26" t="s">
+    <row r="26" spans="2:24" ht="15.75">
+      <c r="B26" s="19"/>
+      <c r="C26" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="51">
         <f>SUM(D12:D25)</f>
         <v>7379.09</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="52">
         <f>D26*12</f>
         <v>88549.08</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="40">
         <v>1</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>40</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="38">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="18.75" spans="8:11">
-      <c r="H27" s="16" t="s">
+    <row r="27" spans="2:24" ht="15.75">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="40">
         <v>1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>25</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="38">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="18.75" spans="8:11">
-      <c r="H28" s="29" t="s">
+    <row r="28" spans="2:24" ht="15.75">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="54">
         <v>1</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="55">
         <v>30</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="56">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="19.5" spans="8:11">
-      <c r="H29" s="30" t="s">
+    <row r="29" spans="2:24" ht="15.75">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="58">
         <f>SUM(K12:K28)</f>
         <v>5155</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="30" ht="19.5" spans="3:4">
-      <c r="C30" s="31" t="s">
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75">
+      <c r="B30" s="19"/>
+      <c r="C30" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="62">
         <f>D26+I29</f>
         <v>12534.09</v>
       </c>
-    </row>
-    <row r="31" ht="19.5" spans="3:4">
-      <c r="C31" s="33" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="2:24" ht="15.75">
+      <c r="B31" s="19"/>
+      <c r="C31" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="64">
         <f>E26+I29</f>
         <v>93704.08</v>
       </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="19">
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="S14:X14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="S13:X13"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="I29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>